--- a/DCIT 23 - CS 1A/POINTS - CS 1A.xlsx
+++ b/DCIT 23 - CS 1A/POINTS - CS 1A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\DCIT 23 - CS 1A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\Grading-Sheets-Second-Sem-2017-2018\DCIT 23 - CS 1A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4185137A-4174-4322-99BA-73557AC3F4DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F3A449-C2CB-418C-B8EC-4DAEDCC10D11}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="167">
   <si>
     <t>C</t>
   </si>
@@ -514,13 +514,22 @@
   </si>
   <si>
     <t>PRELIM</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Excess</t>
+  </si>
+  <si>
+    <t>Items</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,7 +858,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1054,6 +1063,9 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
@@ -1519,14 +1531,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AQ61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH15" sqref="AH15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK24" sqref="AK24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -1536,7 +1548,7 @@
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" ht="15">
       <c r="A1" s="56" t="s">
         <v>50</v>
       </c>
@@ -1587,8 +1599,15 @@
       <c r="AL1" s="55"/>
       <c r="AM1" s="55"/>
       <c r="AN1" s="55"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO1" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" s="72">
+        <v>80</v>
+      </c>
+      <c r="AQ1" s="73"/>
+    </row>
+    <row r="2" spans="1:43" ht="15">
       <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
@@ -1707,8 +1726,17 @@
       <c r="AN2" s="20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO2" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP2" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ2" s="72" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
@@ -1770,8 +1798,19 @@
       </c>
       <c r="AM3" s="35"/>
       <c r="AN3" s="35"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO3" s="74">
+        <f t="shared" ref="AO3:AO46" si="0">IF(AN3+AL3&gt;AQ3,AQ3,AN3+AL3)</f>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="74">
+        <f t="shared" ref="AP3:AP8" si="1">IF(AN3+AL3&gt;AQ3,AL3+AN3-AQ3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
       <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
@@ -1824,21 +1863,32 @@
       </c>
       <c r="AI4" s="33"/>
       <c r="AJ4" s="35">
-        <f t="shared" ref="AJ4:AJ20" si="0">SUM(F4:AI4)</f>
+        <f t="shared" ref="AJ4:AJ20" si="2">SUM(F4:AI4)</f>
         <v>150</v>
       </c>
       <c r="AK4" s="35">
-        <f t="shared" ref="AK4:AK23" si="1">IF(AJ4&gt;100,AJ4-(AJ4-100),AJ4)</f>
+        <f t="shared" ref="AK4:AK23" si="3">IF(AJ4&gt;100,AJ4-(AJ4-100),AJ4)</f>
         <v>100</v>
       </c>
       <c r="AL4" s="35">
-        <f t="shared" ref="AL4:AL26" si="2">IF(AJ4&gt;100,(AJ4-100)/10,0)</f>
+        <f t="shared" ref="AL4:AL26" si="4">IF(AJ4&gt;100,(AJ4-100)/10,0)</f>
         <v>5</v>
       </c>
       <c r="AM4" s="35"/>
       <c r="AN4" s="35"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO4" s="74">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AP4" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
       <c r="A5" s="11" t="s">
         <v>78</v>
       </c>
@@ -1897,21 +1947,32 @@
         <v>50</v>
       </c>
       <c r="AJ5" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>242</v>
       </c>
       <c r="AK5" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="AL5" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.2</v>
       </c>
       <c r="AM5" s="35"/>
       <c r="AN5" s="35"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO5" s="74">
+        <f t="shared" si="0"/>
+        <v>14.2</v>
+      </c>
+      <c r="AP5" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
       <c r="A6" s="22" t="s">
         <v>135</v>
       </c>
@@ -1960,21 +2021,32 @@
       <c r="AH6" s="33"/>
       <c r="AI6" s="33"/>
       <c r="AJ6" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="AK6" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="AL6" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM6" s="35"/>
       <c r="AN6" s="35"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO6" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
       <c r="A7" s="6" t="s">
         <v>81</v>
       </c>
@@ -2035,21 +2107,32 @@
         <v>50</v>
       </c>
       <c r="AJ7" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>235</v>
       </c>
       <c r="AK7" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="AL7" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
       <c r="AM7" s="35"/>
       <c r="AN7" s="35"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO7" s="74">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="AP7" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
       <c r="A8" s="6" t="s">
         <v>84</v>
       </c>
@@ -2108,21 +2191,32 @@
         <v>50</v>
       </c>
       <c r="AJ8" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>202</v>
       </c>
       <c r="AK8" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="AL8" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.199999999999999</v>
       </c>
       <c r="AM8" s="35"/>
       <c r="AN8" s="35"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO8" s="74">
+        <f t="shared" si="0"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AP8" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
       <c r="A9" s="22" t="s">
         <v>157</v>
       </c>
@@ -2167,21 +2261,31 @@
       <c r="AH9" s="33"/>
       <c r="AI9" s="33"/>
       <c r="AJ9" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK9" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL9" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM9" s="35"/>
       <c r="AN9" s="35"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO9" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="74">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
       <c r="A10" s="6" t="s">
         <v>87</v>
       </c>
@@ -2228,21 +2332,32 @@
       <c r="AH10" s="33"/>
       <c r="AI10" s="33"/>
       <c r="AJ10" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AK10" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AL10" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM10" s="35"/>
       <c r="AN10" s="35"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO10" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="74">
+        <f t="shared" ref="AP10:AP46" si="5">IF(AN10+AL10&gt;AQ10,AL10+AN10-AQ10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
       <c r="A11" s="6" t="s">
         <v>90</v>
       </c>
@@ -2299,21 +2414,32 @@
         <v>50</v>
       </c>
       <c r="AJ11" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="AK11" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="AL11" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="AM11" s="35"/>
       <c r="AN11" s="35"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO11" s="74">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AP11" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
       <c r="A12" s="6" t="s">
         <v>93</v>
       </c>
@@ -2370,21 +2496,32 @@
         <v>50</v>
       </c>
       <c r="AJ12" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="AK12" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="AL12" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AM12" s="35"/>
       <c r="AN12" s="35"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO12" s="74">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AP12" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
       <c r="A13" s="6" t="s">
         <v>95</v>
       </c>
@@ -2443,21 +2580,32 @@
         <v>50</v>
       </c>
       <c r="AJ13" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="AK13" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="AL13" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="AM13" s="35"/>
       <c r="AN13" s="35"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO13" s="74">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AP13" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
       <c r="A14" s="22" t="s">
         <v>159</v>
       </c>
@@ -2510,21 +2658,32 @@
         <v>40</v>
       </c>
       <c r="AJ14" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="AK14" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="AL14" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AM14" s="35"/>
       <c r="AN14" s="35"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO14" s="74">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AP14" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
       <c r="A15" s="6" t="s">
         <v>98</v>
       </c>
@@ -2581,21 +2740,32 @@
         <v>50</v>
       </c>
       <c r="AJ15" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="AK15" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="AL15" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AM15" s="35"/>
       <c r="AN15" s="35"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO15" s="74">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AP15" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
       <c r="A16" s="6" t="s">
         <v>100</v>
       </c>
@@ -2652,21 +2822,32 @@
       </c>
       <c r="AI16" s="33"/>
       <c r="AJ16" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="AK16" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="AL16" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="AM16" s="35"/>
       <c r="AN16" s="35"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO16" s="74">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AP16" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
       <c r="A17" s="6" t="s">
         <v>104</v>
       </c>
@@ -2719,21 +2900,32 @@
       <c r="AH17" s="33"/>
       <c r="AI17" s="33"/>
       <c r="AJ17" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="AK17" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="AL17" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM17" s="35"/>
       <c r="AN17" s="35"/>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO17" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43">
       <c r="A18" s="6" t="s">
         <v>107</v>
       </c>
@@ -2790,21 +2982,32 @@
         <v>24</v>
       </c>
       <c r="AJ18" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="AK18" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="AL18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AM18" s="35"/>
       <c r="AN18" s="35"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO18" s="74">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AP18" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43">
       <c r="A19" s="6" t="s">
         <v>110</v>
       </c>
@@ -2865,21 +3068,32 @@
         <v>50</v>
       </c>
       <c r="AJ19" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="AK19" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="AL19" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="AM19" s="35"/>
       <c r="AN19" s="35"/>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO19" s="74">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AP19" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43">
       <c r="A20" s="6" t="s">
         <v>113</v>
       </c>
@@ -2938,21 +3152,32 @@
         <v>50</v>
       </c>
       <c r="AJ20" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>246</v>
       </c>
       <c r="AK20" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="AL20" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.6</v>
       </c>
       <c r="AM20" s="35"/>
       <c r="AN20" s="35"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO20" s="74">
+        <f t="shared" si="0"/>
+        <v>14.6</v>
+      </c>
+      <c r="AP20" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43">
       <c r="A21" s="6" t="s">
         <v>116</v>
       </c>
@@ -3015,17 +3240,28 @@
         <v>226</v>
       </c>
       <c r="AK21" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="AL21" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.6</v>
       </c>
       <c r="AM21" s="35"/>
       <c r="AN21" s="35"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO21" s="74">
+        <f t="shared" si="0"/>
+        <v>12.6</v>
+      </c>
+      <c r="AP21" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43">
       <c r="A22" s="6" t="s">
         <v>119</v>
       </c>
@@ -3084,21 +3320,32 @@
         <v>50</v>
       </c>
       <c r="AJ22" s="35">
-        <f t="shared" ref="AJ22:AJ23" si="3">SUM(F22:AI22)</f>
+        <f t="shared" ref="AJ22:AJ23" si="6">SUM(F22:AI22)</f>
         <v>180</v>
       </c>
       <c r="AK22" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="AL22" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="AM22" s="35"/>
       <c r="AN22" s="35"/>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO22" s="74">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AP22" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43">
       <c r="A23" s="11" t="s">
         <v>123</v>
       </c>
@@ -3159,21 +3406,32 @@
         <v>50</v>
       </c>
       <c r="AJ23" s="35">
+        <f t="shared" si="6"/>
+        <v>260</v>
+      </c>
+      <c r="AK23" s="35">
         <f t="shared" si="3"/>
-        <v>260</v>
-      </c>
-      <c r="AK23" s="35">
-        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AL23" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="AM23" s="35"/>
       <c r="AN23" s="35"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO23" s="74">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AP23" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43">
       <c r="A24" s="22" t="s">
         <v>156</v>
       </c>
@@ -3230,21 +3488,34 @@
         <v>50</v>
       </c>
       <c r="AJ24" s="35">
-        <f t="shared" ref="AJ24:AJ34" si="4">SUM(F24:AI24)</f>
+        <f t="shared" ref="AJ24:AJ34" si="7">SUM(F24:AI24)</f>
         <v>226</v>
       </c>
       <c r="AK24" s="35">
-        <f t="shared" ref="AK24:AK34" si="5">IF(AJ24&gt;100,AJ24-(AJ24-100),AJ24)</f>
+        <f t="shared" ref="AK24:AK34" si="8">IF(AJ24&gt;100,AJ24-(AJ24-100),AJ24)</f>
         <v>100</v>
       </c>
       <c r="AL24" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.6</v>
       </c>
       <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN24" s="35">
+        <v>50</v>
+      </c>
+      <c r="AO24" s="74">
+        <f t="shared" si="0"/>
+        <v>62.6</v>
+      </c>
+      <c r="AP24" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43">
       <c r="A25" s="10" t="s">
         <v>126</v>
       </c>
@@ -3301,21 +3572,32 @@
         <v>50</v>
       </c>
       <c r="AJ25" s="35">
+        <f t="shared" si="7"/>
+        <v>202</v>
+      </c>
+      <c r="AK25" s="35">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AL25" s="35">
         <f t="shared" si="4"/>
-        <v>202</v>
-      </c>
-      <c r="AK25" s="35">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL25" s="35">
-        <f t="shared" si="2"/>
         <v>10.199999999999999</v>
       </c>
       <c r="AM25" s="35"/>
       <c r="AN25" s="35"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO25" s="74">
+        <f t="shared" si="0"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AP25" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43">
       <c r="A26" s="22" t="s">
         <v>129</v>
       </c>
@@ -3372,21 +3654,32 @@
         <v>30</v>
       </c>
       <c r="AJ26" s="35">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="AK26" s="35">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AL26" s="35">
         <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="AK26" s="35">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL26" s="35">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AM26" s="35"/>
       <c r="AN26" s="35"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO26" s="74">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AP26" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
@@ -3423,21 +3716,32 @@
       <c r="AH27" s="33"/>
       <c r="AI27" s="33"/>
       <c r="AJ27" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK27" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL27" s="35">
-        <f t="shared" ref="AL27:AL34" si="6">IF(AK27&gt;100,AK27-100,0)</f>
+        <f t="shared" ref="AL27:AL34" si="9">IF(AK27&gt;100,AK27-100,0)</f>
         <v>0</v>
       </c>
       <c r="AM27" s="35"/>
       <c r="AN27" s="35"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO27" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP27" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43">
       <c r="A28" s="6"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
@@ -3474,21 +3778,32 @@
       <c r="AH28" s="33"/>
       <c r="AI28" s="33"/>
       <c r="AJ28" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK28" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL28" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM28" s="35"/>
       <c r="AN28" s="35"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO28" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP28" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="23"/>
@@ -3525,21 +3840,32 @@
       <c r="AH29" s="33"/>
       <c r="AI29" s="33"/>
       <c r="AJ29" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK29" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL29" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM29" s="35"/>
       <c r="AN29" s="35"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO29" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP29" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43">
       <c r="A30" s="6"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -3576,21 +3902,32 @@
       <c r="AH30" s="33"/>
       <c r="AI30" s="33"/>
       <c r="AJ30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK30" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL30" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM30" s="35"/>
       <c r="AN30" s="35"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO30" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP30" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43">
       <c r="A31" s="6"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
@@ -3627,21 +3964,32 @@
       <c r="AH31" s="33"/>
       <c r="AI31" s="33"/>
       <c r="AJ31" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK31" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL31" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM31" s="35"/>
       <c r="AN31" s="35"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO31" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP31" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
       <c r="A32" s="6"/>
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
@@ -3678,21 +4026,32 @@
       <c r="AH32" s="33"/>
       <c r="AI32" s="33"/>
       <c r="AJ32" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK32" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL32" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM32" s="35"/>
       <c r="AN32" s="35"/>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO32" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP32" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43">
       <c r="A33" s="6"/>
       <c r="B33" s="22"/>
       <c r="C33" s="25"/>
@@ -3729,21 +4088,32 @@
       <c r="AH33" s="33"/>
       <c r="AI33" s="33"/>
       <c r="AJ33" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK33" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL33" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM33" s="35"/>
       <c r="AN33" s="35"/>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO33" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP33" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43">
       <c r="A34" s="22"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -3780,21 +4150,32 @@
       <c r="AH34" s="33"/>
       <c r="AI34" s="33"/>
       <c r="AJ34" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK34" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL34" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM34" s="35"/>
       <c r="AN34" s="35"/>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO34" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP34" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43">
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -3831,21 +4212,32 @@
       <c r="AH35" s="33"/>
       <c r="AI35" s="33"/>
       <c r="AJ35" s="35">
-        <f t="shared" ref="AJ35:AJ61" si="7">SUM(F35:AI35)</f>
+        <f t="shared" ref="AJ35:AJ61" si="10">SUM(F35:AI35)</f>
         <v>0</v>
       </c>
       <c r="AK35" s="35">
-        <f t="shared" ref="AK35:AK61" si="8">IF(AJ35&gt;100,AJ35-(AJ35-100),AJ35)</f>
+        <f t="shared" ref="AK35:AK61" si="11">IF(AJ35&gt;100,AJ35-(AJ35-100),AJ35)</f>
         <v>0</v>
       </c>
       <c r="AL35" s="35">
-        <f t="shared" ref="AL35:AL61" si="9">IF(AK35&gt;100,AK35-100,0)</f>
+        <f t="shared" ref="AL35:AL61" si="12">IF(AK35&gt;100,AK35-100,0)</f>
         <v>0</v>
       </c>
       <c r="AM35" s="35"/>
       <c r="AN35" s="35"/>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO35" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP35" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43">
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -3882,21 +4274,32 @@
       <c r="AH36" s="33"/>
       <c r="AI36" s="33"/>
       <c r="AJ36" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK36" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL36" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM36" s="35"/>
       <c r="AN36" s="35"/>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO36" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP36" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -3933,21 +4336,32 @@
       <c r="AH37" s="33"/>
       <c r="AI37" s="33"/>
       <c r="AJ37" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK37" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL37" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM37" s="35"/>
       <c r="AN37" s="35"/>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO37" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP37" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -3984,21 +4398,32 @@
       <c r="AH38" s="33"/>
       <c r="AI38" s="33"/>
       <c r="AJ38" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK38" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL38" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM38" s="35"/>
       <c r="AN38" s="35"/>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO38" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP38" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -4035,21 +4460,32 @@
       <c r="AH39" s="33"/>
       <c r="AI39" s="33"/>
       <c r="AJ39" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK39" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL39" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM39" s="35"/>
       <c r="AN39" s="35"/>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO39" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP39" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43">
       <c r="A40" s="22"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -4086,21 +4522,32 @@
       <c r="AH40" s="33"/>
       <c r="AI40" s="33"/>
       <c r="AJ40" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK40" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL40" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM40" s="35"/>
       <c r="AN40" s="35"/>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO40" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP40" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43">
       <c r="A41" s="22"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -4137,21 +4584,32 @@
       <c r="AH41" s="33"/>
       <c r="AI41" s="33"/>
       <c r="AJ41" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK41" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL41" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM41" s="35"/>
       <c r="AN41" s="35"/>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO41" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP41" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43">
       <c r="A42" s="22"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -4188,21 +4646,32 @@
       <c r="AH42" s="33"/>
       <c r="AI42" s="33"/>
       <c r="AJ42" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK42" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL42" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM42" s="35"/>
       <c r="AN42" s="35"/>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO42" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP42" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43">
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -4239,21 +4708,32 @@
       <c r="AH43" s="33"/>
       <c r="AI43" s="33"/>
       <c r="AJ43" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK43" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL43" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM43" s="35"/>
       <c r="AN43" s="35"/>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO43" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP43" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -4290,21 +4770,32 @@
       <c r="AH44" s="33"/>
       <c r="AI44" s="33"/>
       <c r="AJ44" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK44" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL44" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM44" s="35"/>
       <c r="AN44" s="35"/>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO44" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP44" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -4341,21 +4832,32 @@
       <c r="AH45" s="33"/>
       <c r="AI45" s="33"/>
       <c r="AJ45" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK45" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL45" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM45" s="35"/>
       <c r="AN45" s="35"/>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO45" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP45" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -4392,21 +4894,32 @@
       <c r="AH46" s="33"/>
       <c r="AI46" s="33"/>
       <c r="AJ46" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK46" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL46" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM46" s="35"/>
       <c r="AN46" s="35"/>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO46" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP46" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -4443,21 +4956,24 @@
       <c r="AH47" s="33"/>
       <c r="AI47" s="33"/>
       <c r="AJ47" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK47" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL47" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM47" s="35"/>
       <c r="AN47" s="35"/>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AQ47" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -4494,21 +5010,24 @@
       <c r="AH48" s="33"/>
       <c r="AI48" s="33"/>
       <c r="AJ48" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK48" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL48" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM48" s="35"/>
       <c r="AN48" s="35"/>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AQ48" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -4545,21 +5064,24 @@
       <c r="AH49" s="33"/>
       <c r="AI49" s="33"/>
       <c r="AJ49" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK49" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL49" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM49" s="35"/>
       <c r="AN49" s="35"/>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AQ49" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -4596,21 +5118,24 @@
       <c r="AH50" s="33"/>
       <c r="AI50" s="33"/>
       <c r="AJ50" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK50" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL50" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM50" s="35"/>
       <c r="AN50" s="35"/>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AQ50" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -4647,21 +5172,24 @@
       <c r="AH51" s="33"/>
       <c r="AI51" s="33"/>
       <c r="AJ51" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK51" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL51" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM51" s="35"/>
       <c r="AN51" s="35"/>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AQ51" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -4698,21 +5226,24 @@
       <c r="AH52" s="33"/>
       <c r="AI52" s="33"/>
       <c r="AJ52" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK52" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL52" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM52" s="35"/>
       <c r="AN52" s="35"/>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AQ52" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -4749,21 +5280,24 @@
       <c r="AH53" s="33"/>
       <c r="AI53" s="33"/>
       <c r="AJ53" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK53" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL53" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM53" s="35"/>
       <c r="AN53" s="35"/>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AQ53" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -4800,21 +5334,24 @@
       <c r="AH54" s="33"/>
       <c r="AI54" s="33"/>
       <c r="AJ54" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK54" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL54" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM54" s="35"/>
       <c r="AN54" s="35"/>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AQ54" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -4851,21 +5388,24 @@
       <c r="AH55" s="33"/>
       <c r="AI55" s="33"/>
       <c r="AJ55" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK55" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL55" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM55" s="35"/>
       <c r="AN55" s="35"/>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AQ55" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -4902,21 +5442,24 @@
       <c r="AH56" s="33"/>
       <c r="AI56" s="33"/>
       <c r="AJ56" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK56" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL56" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM56" s="35"/>
       <c r="AN56" s="35"/>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AQ56" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -4953,21 +5496,24 @@
       <c r="AH57" s="33"/>
       <c r="AI57" s="33"/>
       <c r="AJ57" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK57" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL57" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM57" s="35"/>
       <c r="AN57" s="35"/>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AQ57" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -5004,21 +5550,21 @@
       <c r="AH58" s="33"/>
       <c r="AI58" s="33"/>
       <c r="AJ58" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK58" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL58" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM58" s="35"/>
       <c r="AN58" s="35"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:43">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -5055,21 +5601,21 @@
       <c r="AH59" s="33"/>
       <c r="AI59" s="33"/>
       <c r="AJ59" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK59" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL59" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM59" s="35"/>
       <c r="AN59" s="35"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:43">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -5106,21 +5652,21 @@
       <c r="AH60" s="33"/>
       <c r="AI60" s="33"/>
       <c r="AJ60" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK60" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL60" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM60" s="35"/>
       <c r="AN60" s="35"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:43">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -5157,15 +5703,15 @@
       <c r="AH61" s="33"/>
       <c r="AI61" s="33"/>
       <c r="AJ61" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK61" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL61" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM61" s="35"/>
@@ -5226,7 +5772,7 @@
       <selection pane="topRight" activeCell="H3" sqref="H3:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -5236,7 +5782,7 @@
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="15" customHeight="1">
       <c r="A1" s="56" t="s">
         <v>50</v>
       </c>
@@ -5290,7 +5836,7 @@
       <c r="AM1" s="62"/>
       <c r="AN1" s="62"/>
     </row>
-    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15">
       <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
@@ -5372,7 +5918,7 @@
       <c r="AM2" s="37"/>
       <c r="AN2" s="37"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40">
       <c r="A3" s="2" t="s">
         <v>136</v>
       </c>
@@ -5428,7 +5974,7 @@
       <c r="AM3" s="40"/>
       <c r="AN3" s="40"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40">
       <c r="A4" s="6" t="s">
         <v>137</v>
       </c>
@@ -5486,7 +6032,7 @@
       <c r="AM4" s="40"/>
       <c r="AN4" s="40"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40">
       <c r="A5" s="11" t="s">
         <v>138</v>
       </c>
@@ -5544,7 +6090,7 @@
       <c r="AM5" s="40"/>
       <c r="AN5" s="40"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40">
       <c r="A6" s="22" t="s">
         <v>135</v>
       </c>
@@ -5598,7 +6144,7 @@
       <c r="AM6" s="40"/>
       <c r="AN6" s="40"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40">
       <c r="A7" s="6" t="s">
         <v>139</v>
       </c>
@@ -5656,7 +6202,7 @@
       <c r="AM7" s="40"/>
       <c r="AN7" s="40"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40">
       <c r="A8" s="6" t="s">
         <v>140</v>
       </c>
@@ -5714,7 +6260,7 @@
       <c r="AM8" s="40"/>
       <c r="AN8" s="40"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40">
       <c r="A9" s="22" t="s">
         <v>157</v>
       </c>
@@ -5768,7 +6314,7 @@
       <c r="AM9" s="40"/>
       <c r="AN9" s="40"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40">
       <c r="A10" s="6" t="s">
         <v>145</v>
       </c>
@@ -5826,7 +6372,7 @@
       <c r="AM10" s="40"/>
       <c r="AN10" s="40"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40">
       <c r="A11" s="6" t="s">
         <v>141</v>
       </c>
@@ -5884,7 +6430,7 @@
       <c r="AM11" s="40"/>
       <c r="AN11" s="40"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40">
       <c r="A12" s="6" t="s">
         <v>142</v>
       </c>
@@ -5942,7 +6488,7 @@
       <c r="AM12" s="40"/>
       <c r="AN12" s="40"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40">
       <c r="A13" s="6" t="s">
         <v>143</v>
       </c>
@@ -6000,7 +6546,7 @@
       <c r="AM13" s="40"/>
       <c r="AN13" s="40"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40">
       <c r="A14" s="6" t="s">
         <v>144</v>
       </c>
@@ -6058,7 +6604,7 @@
       <c r="AM14" s="40"/>
       <c r="AN14" s="40"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40">
       <c r="A15" s="22" t="s">
         <v>159</v>
       </c>
@@ -6114,7 +6660,7 @@
       <c r="AM15" s="40"/>
       <c r="AN15" s="40"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40">
       <c r="A16" s="6" t="s">
         <v>146</v>
       </c>
@@ -6172,7 +6718,7 @@
       <c r="AM16" s="40"/>
       <c r="AN16" s="40"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40">
       <c r="A17" s="6" t="s">
         <v>147</v>
       </c>
@@ -6230,7 +6776,7 @@
       <c r="AM17" s="40"/>
       <c r="AN17" s="40"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40">
       <c r="A18" s="6" t="s">
         <v>148</v>
       </c>
@@ -6288,7 +6834,7 @@
       <c r="AM18" s="40"/>
       <c r="AN18" s="40"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40">
       <c r="A19" s="6" t="s">
         <v>149</v>
       </c>
@@ -6346,7 +6892,7 @@
       <c r="AM19" s="40"/>
       <c r="AN19" s="40"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40">
       <c r="A20" s="6" t="s">
         <v>150</v>
       </c>
@@ -6404,7 +6950,7 @@
       <c r="AM20" s="40"/>
       <c r="AN20" s="40"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40">
       <c r="A21" s="6" t="s">
         <v>151</v>
       </c>
@@ -6462,7 +7008,7 @@
       <c r="AM21" s="40"/>
       <c r="AN21" s="40"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40">
       <c r="A22" s="6" t="s">
         <v>152</v>
       </c>
@@ -6520,7 +7066,7 @@
       <c r="AM22" s="40"/>
       <c r="AN22" s="40"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40">
       <c r="A23" s="11" t="s">
         <v>153</v>
       </c>
@@ -6578,7 +7124,7 @@
       <c r="AM23" s="40"/>
       <c r="AN23" s="40"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40">
       <c r="A24" s="22" t="s">
         <v>156</v>
       </c>
@@ -6632,7 +7178,7 @@
       <c r="AM24" s="40"/>
       <c r="AN24" s="40"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40">
       <c r="A25" s="10" t="s">
         <v>154</v>
       </c>
@@ -6688,7 +7234,7 @@
       <c r="AM25" s="40"/>
       <c r="AN25" s="40"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40">
       <c r="A26" s="22" t="s">
         <v>155</v>
       </c>
@@ -6742,7 +7288,7 @@
       <c r="AM26" s="40"/>
       <c r="AN26" s="40"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
@@ -6784,7 +7330,7 @@
       <c r="AM27" s="40"/>
       <c r="AN27" s="40"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
@@ -6826,7 +7372,7 @@
       <c r="AM28" s="40"/>
       <c r="AN28" s="40"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="23"/>
@@ -6868,7 +7414,7 @@
       <c r="AM29" s="40"/>
       <c r="AN29" s="40"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -6910,7 +7456,7 @@
       <c r="AM30" s="40"/>
       <c r="AN30" s="40"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
@@ -6952,7 +7498,7 @@
       <c r="AM31" s="40"/>
       <c r="AN31" s="40"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
@@ -6994,7 +7540,7 @@
       <c r="AM32" s="40"/>
       <c r="AN32" s="40"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="23"/>
@@ -7036,7 +7582,7 @@
       <c r="AM33" s="40"/>
       <c r="AN33" s="40"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="25"/>
@@ -7078,7 +7624,7 @@
       <c r="AM34" s="40"/>
       <c r="AN34" s="40"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40">
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -7120,7 +7666,7 @@
       <c r="AM35" s="40"/>
       <c r="AN35" s="40"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40">
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -7162,7 +7708,7 @@
       <c r="AM36" s="40"/>
       <c r="AN36" s="40"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -7204,7 +7750,7 @@
       <c r="AM37" s="40"/>
       <c r="AN37" s="40"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -7246,7 +7792,7 @@
       <c r="AM38" s="40"/>
       <c r="AN38" s="40"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -7288,7 +7834,7 @@
       <c r="AM39" s="40"/>
       <c r="AN39" s="40"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40">
       <c r="A40" s="22"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -7330,7 +7876,7 @@
       <c r="AM40" s="40"/>
       <c r="AN40" s="40"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40">
       <c r="A41" s="22"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -7372,7 +7918,7 @@
       <c r="AM41" s="40"/>
       <c r="AN41" s="40"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40">
       <c r="A42" s="22"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -7414,7 +7960,7 @@
       <c r="AM42" s="40"/>
       <c r="AN42" s="40"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40">
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -7456,7 +8002,7 @@
       <c r="AM43" s="40"/>
       <c r="AN43" s="40"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -7498,7 +8044,7 @@
       <c r="AM44" s="40"/>
       <c r="AN44" s="40"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -7540,7 +8086,7 @@
       <c r="AM45" s="40"/>
       <c r="AN45" s="40"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -7582,7 +8128,7 @@
       <c r="AM46" s="40"/>
       <c r="AN46" s="40"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -7624,7 +8170,7 @@
       <c r="AM47" s="40"/>
       <c r="AN47" s="40"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -7666,7 +8212,7 @@
       <c r="AM48" s="40"/>
       <c r="AN48" s="40"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -7708,7 +8254,7 @@
       <c r="AM49" s="40"/>
       <c r="AN49" s="40"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -7750,7 +8296,7 @@
       <c r="AM50" s="40"/>
       <c r="AN50" s="40"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -7792,7 +8338,7 @@
       <c r="AM51" s="40"/>
       <c r="AN51" s="40"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -7834,7 +8380,7 @@
       <c r="AM52" s="40"/>
       <c r="AN52" s="40"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -7876,7 +8422,7 @@
       <c r="AM53" s="40"/>
       <c r="AN53" s="40"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -7918,7 +8464,7 @@
       <c r="AM54" s="40"/>
       <c r="AN54" s="40"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -7960,7 +8506,7 @@
       <c r="AM55" s="40"/>
       <c r="AN55" s="40"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -8002,7 +8548,7 @@
       <c r="AM56" s="40"/>
       <c r="AN56" s="40"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -8044,7 +8590,7 @@
       <c r="AM57" s="40"/>
       <c r="AN57" s="40"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -8086,7 +8632,7 @@
       <c r="AM58" s="40"/>
       <c r="AN58" s="40"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -8128,7 +8674,7 @@
       <c r="AM59" s="40"/>
       <c r="AN59" s="40"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -8170,7 +8716,7 @@
       <c r="AM60" s="40"/>
       <c r="AN60" s="40"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -8212,7 +8758,7 @@
       <c r="AM61" s="40"/>
       <c r="AN61" s="40"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40">
       <c r="A62" s="22"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -8291,12 +8837,12 @@
       <selection activeCell="B2" sqref="B2:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="53" t="s">
         <v>135</v>
       </c>
@@ -8307,7 +8853,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="22" t="s">
         <v>156</v>
       </c>
@@ -8318,7 +8864,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>137</v>
       </c>
@@ -8329,7 +8875,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>144</v>
       </c>
@@ -8340,7 +8886,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>152</v>
       </c>
@@ -8351,7 +8897,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>147</v>
       </c>
@@ -8362,7 +8908,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>148</v>
       </c>
@@ -8373,7 +8919,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="22" t="s">
         <v>155</v>
       </c>
@@ -8384,7 +8930,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>145</v>
       </c>
@@ -8395,7 +8941,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>146</v>
       </c>
@@ -8406,7 +8952,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="11" t="s">
         <v>138</v>
       </c>
@@ -8417,7 +8963,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>141</v>
       </c>
@@ -8428,7 +8974,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>149</v>
       </c>
@@ -8439,7 +8985,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>142</v>
       </c>
@@ -8450,7 +8996,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
         <v>150</v>
       </c>
@@ -8461,7 +9007,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="11" t="s">
         <v>153</v>
       </c>
@@ -8472,7 +9018,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>140</v>
       </c>
@@ -8483,7 +9029,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>143</v>
       </c>
@@ -8494,7 +9040,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>151</v>
       </c>
@@ -8505,7 +9051,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="22" t="s">
         <v>159</v>
       </c>
@@ -8516,7 +9062,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
         <v>136</v>
       </c>
@@ -8527,7 +9073,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>139</v>
       </c>
@@ -8538,7 +9084,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="23" t="s">
         <v>157</v>
       </c>
@@ -8549,7 +9095,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>154</v>
       </c>

--- a/DCIT 23 - CS 1A/POINTS - CS 1A.xlsx
+++ b/DCIT 23 - CS 1A/POINTS - CS 1A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\Grading-Sheets-Second-Sem-2017-2018\DCIT 23 - CS 1A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F3A449-C2CB-418C-B8EC-4DAEDCC10D11}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A527B178-E0D1-4D70-B87B-DEF481AEF78F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1007,6 +1007,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1063,9 +1066,6 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
@@ -1533,9 +1533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK24" sqref="AK24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1549,63 +1549,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="15">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="59" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="60" t="s">
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="54" t="s">
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="72" t="s">
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="AP1" s="72">
+      <c r="AP1" s="54">
         <v>80</v>
       </c>
-      <c r="AQ1" s="73"/>
+      <c r="AQ1" s="55"/>
     </row>
     <row r="2" spans="1:43" ht="15">
       <c r="A2" s="13" t="s">
@@ -1726,13 +1726,13 @@
       <c r="AN2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="AO2" s="72" t="s">
+      <c r="AO2" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="AP2" s="72" t="s">
+      <c r="AP2" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="AQ2" s="72" t="s">
+      <c r="AQ2" s="54" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1797,16 +1797,18 @@
         <v>0</v>
       </c>
       <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="74">
-        <f t="shared" ref="AO3:AO46" si="0">IF(AN3+AL3&gt;AQ3,AQ3,AN3+AL3)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3" s="74">
-        <f t="shared" ref="AP3:AP8" si="1">IF(AN3+AL3&gt;AQ3,AL3+AN3-AQ3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="72">
+      <c r="AN3" s="35">
+        <v>33</v>
+      </c>
+      <c r="AO3" s="56">
+        <f>IF(AN3+AL3&gt;AQ3,AQ3,AN3+AL3)</f>
+        <v>33</v>
+      </c>
+      <c r="AP3" s="56">
+        <f>IF(AN3+AL3&gt;AQ3,AL3+AN3-AQ3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="54">
         <v>70</v>
       </c>
     </row>
@@ -1863,28 +1865,30 @@
       </c>
       <c r="AI4" s="33"/>
       <c r="AJ4" s="35">
-        <f t="shared" ref="AJ4:AJ20" si="2">SUM(F4:AI4)</f>
+        <f>SUM(F4:AI4)</f>
         <v>150</v>
       </c>
       <c r="AK4" s="35">
-        <f t="shared" ref="AK4:AK23" si="3">IF(AJ4&gt;100,AJ4-(AJ4-100),AJ4)</f>
+        <f>IF(AJ4&gt;100,AJ4-(AJ4-100),AJ4)</f>
         <v>100</v>
       </c>
       <c r="AL4" s="35">
-        <f t="shared" ref="AL4:AL26" si="4">IF(AJ4&gt;100,(AJ4-100)/10,0)</f>
+        <f>IF(AJ4&gt;100,(AJ4-100)/10,0)</f>
         <v>5</v>
       </c>
       <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="74">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AP4" s="74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="72">
+      <c r="AN4" s="35">
+        <v>50</v>
+      </c>
+      <c r="AO4" s="56">
+        <f>IF(AN4+AL4&gt;AQ4,AQ4,AN4+AL4)</f>
+        <v>55</v>
+      </c>
+      <c r="AP4" s="56">
+        <f>IF(AN4+AL4&gt;AQ4,AL4+AN4-AQ4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="54">
         <v>70</v>
       </c>
     </row>
@@ -1947,28 +1951,30 @@
         <v>50</v>
       </c>
       <c r="AJ5" s="35">
-        <f t="shared" si="2"/>
+        <f>SUM(F5:AI5)</f>
         <v>242</v>
       </c>
       <c r="AK5" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(AJ5&gt;100,AJ5-(AJ5-100),AJ5)</f>
         <v>100</v>
       </c>
       <c r="AL5" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(AJ5&gt;100,(AJ5-100)/10,0)</f>
         <v>14.2</v>
       </c>
       <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="74">
-        <f t="shared" si="0"/>
-        <v>14.2</v>
-      </c>
-      <c r="AP5" s="74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="72">
+      <c r="AN5" s="35">
+        <v>46</v>
+      </c>
+      <c r="AO5" s="56">
+        <f>IF(AN5+AL5&gt;AQ5,AQ5,AN5+AL5)</f>
+        <v>60.2</v>
+      </c>
+      <c r="AP5" s="56">
+        <f>IF(AN5+AL5&gt;AQ5,AL5+AN5-AQ5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="54">
         <v>70</v>
       </c>
     </row>
@@ -2021,28 +2027,30 @@
       <c r="AH6" s="33"/>
       <c r="AI6" s="33"/>
       <c r="AJ6" s="35">
-        <f t="shared" si="2"/>
+        <f>SUM(F6:AI6)</f>
         <v>72</v>
       </c>
       <c r="AK6" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(AJ6&gt;100,AJ6-(AJ6-100),AJ6)</f>
         <v>72</v>
       </c>
       <c r="AL6" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(AJ6&gt;100,(AJ6-100)/10,0)</f>
         <v>0</v>
       </c>
       <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP6" s="74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="72">
+      <c r="AN6" s="35">
+        <v>42</v>
+      </c>
+      <c r="AO6" s="56">
+        <f>IF(AN6+AL6&gt;AQ6,AQ6,AN6+AL6)</f>
+        <v>42</v>
+      </c>
+      <c r="AP6" s="56">
+        <f>IF(AN6+AL6&gt;AQ6,AL6+AN6-AQ6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="54">
         <v>70</v>
       </c>
     </row>
@@ -2107,28 +2115,30 @@
         <v>50</v>
       </c>
       <c r="AJ7" s="35">
-        <f t="shared" si="2"/>
+        <f>SUM(F7:AI7)</f>
         <v>235</v>
       </c>
       <c r="AK7" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(AJ7&gt;100,AJ7-(AJ7-100),AJ7)</f>
         <v>100</v>
       </c>
       <c r="AL7" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(AJ7&gt;100,(AJ7-100)/10,0)</f>
         <v>13.5</v>
       </c>
       <c r="AM7" s="35"/>
-      <c r="AN7" s="35"/>
-      <c r="AO7" s="74">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="AP7" s="74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="72">
+      <c r="AN7" s="35">
+        <v>34</v>
+      </c>
+      <c r="AO7" s="56">
+        <f>IF(AN7+AL7&gt;AQ7,AQ7,AN7+AL7)</f>
+        <v>47.5</v>
+      </c>
+      <c r="AP7" s="56">
+        <f>IF(AN7+AL7&gt;AQ7,AL7+AN7-AQ7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="54">
         <v>70</v>
       </c>
     </row>
@@ -2191,28 +2201,30 @@
         <v>50</v>
       </c>
       <c r="AJ8" s="35">
-        <f t="shared" si="2"/>
+        <f>SUM(F8:AI8)</f>
         <v>202</v>
       </c>
       <c r="AK8" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(AJ8&gt;100,AJ8-(AJ8-100),AJ8)</f>
         <v>100</v>
       </c>
       <c r="AL8" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(AJ8&gt;100,(AJ8-100)/10,0)</f>
         <v>10.199999999999999</v>
       </c>
       <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="74">
-        <f t="shared" si="0"/>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AP8" s="74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="72">
+      <c r="AN8" s="35">
+        <v>64</v>
+      </c>
+      <c r="AO8" s="56">
+        <f>IF(AN8+AL8&gt;AQ8,AQ8,AN8+AL8)</f>
+        <v>70</v>
+      </c>
+      <c r="AP8" s="56">
+        <f>IF(AN8+AL8&gt;AQ8,AL8+AN8-AQ8,0)</f>
+        <v>4.2000000000000028</v>
+      </c>
+      <c r="AQ8" s="54">
         <v>70</v>
       </c>
     </row>
@@ -2261,39 +2273,39 @@
       <c r="AH9" s="33"/>
       <c r="AI9" s="33"/>
       <c r="AJ9" s="35">
-        <f t="shared" si="2"/>
+        <f>SUM(F9:AI9)</f>
         <v>0</v>
       </c>
       <c r="AK9" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(AJ9&gt;100,AJ9-(AJ9-100),AJ9)</f>
         <v>0</v>
       </c>
       <c r="AL9" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(AJ9&gt;100,(AJ9-100)/10,0)</f>
         <v>0</v>
       </c>
       <c r="AM9" s="35"/>
       <c r="AN9" s="35"/>
-      <c r="AO9" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP9" s="74">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="72">
+      <c r="AO9" s="56">
+        <f>IF(AN9+AL9&gt;AQ9,AQ9,AN9+AL9)</f>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="56">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="54">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="6" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
@@ -2303,14 +2315,18 @@
       <c r="G10" s="28">
         <v>10</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="28">
+        <v>10</v>
+      </c>
       <c r="I10" s="28"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
-      <c r="O10" s="27"/>
+      <c r="O10" s="27">
+        <v>20</v>
+      </c>
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
@@ -2326,67 +2342,71 @@
       <c r="AB10" s="33"/>
       <c r="AC10" s="33"/>
       <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
+      <c r="AE10" s="33">
+        <v>20</v>
+      </c>
       <c r="AF10" s="33"/>
       <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
+      <c r="AH10" s="33">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="33">
+        <v>50</v>
+      </c>
       <c r="AJ10" s="35">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>SUM(F10:AI10)</f>
+        <v>120</v>
       </c>
       <c r="AK10" s="35">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f>IF(AJ10&gt;100,AJ10-(AJ10-100),AJ10)</f>
+        <v>100</v>
       </c>
       <c r="AL10" s="35">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(AJ10&gt;100,(AJ10-100)/10,0)</f>
+        <v>2</v>
       </c>
       <c r="AM10" s="35"/>
-      <c r="AN10" s="35"/>
-      <c r="AO10" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP10" s="74">
-        <f t="shared" ref="AP10:AP46" si="5">IF(AN10+AL10&gt;AQ10,AL10+AN10-AQ10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="72">
+      <c r="AN10" s="35">
+        <v>53</v>
+      </c>
+      <c r="AO10" s="56">
+        <f>IF(AN10+AL10&gt;AQ10,AQ10,AN10+AL10)</f>
+        <v>55</v>
+      </c>
+      <c r="AP10" s="56">
+        <f>IF(AN10+AL10&gt;AQ10,AL10+AN10-AQ10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="54">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28">
         <v>10</v>
       </c>
       <c r="H11" s="28"/>
-      <c r="I11" s="28">
-        <v>60</v>
-      </c>
+      <c r="I11" s="28"/>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
-      <c r="O11" s="27">
-        <v>20</v>
-      </c>
+      <c r="O11" s="27"/>
       <c r="P11" s="32"/>
       <c r="Q11" s="32"/>
       <c r="R11" s="32"/>
@@ -2402,65 +2422,61 @@
       <c r="AB11" s="33"/>
       <c r="AC11" s="33"/>
       <c r="AD11" s="33"/>
-      <c r="AE11" s="33">
-        <v>20</v>
-      </c>
+      <c r="AE11" s="33"/>
       <c r="AF11" s="33"/>
       <c r="AG11" s="33"/>
-      <c r="AH11" s="33">
-        <v>50</v>
-      </c>
-      <c r="AI11" s="33">
-        <v>50</v>
-      </c>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
       <c r="AJ11" s="35">
-        <f t="shared" si="2"/>
-        <v>210</v>
+        <f>SUM(F11:AI11)</f>
+        <v>10</v>
       </c>
       <c r="AK11" s="35">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f>IF(AJ11&gt;100,AJ11-(AJ11-100),AJ11)</f>
+        <v>10</v>
       </c>
       <c r="AL11" s="35">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f>IF(AJ11&gt;100,(AJ11-100)/10,0)</f>
+        <v>0</v>
       </c>
       <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="74">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AP11" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="72">
+      <c r="AN11" s="35">
+        <v>13</v>
+      </c>
+      <c r="AO11" s="56">
+        <f>IF(AN11+AL11&gt;AQ11,AQ11,AN11+AL11)</f>
+        <v>13</v>
+      </c>
+      <c r="AP11" s="56">
+        <f>IF(AN11+AL11&gt;AQ11,AL11+AN11-AQ11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="54">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="28">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F12" s="28"/>
       <c r="G12" s="28">
         <v>10</v>
       </c>
       <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="I12" s="28">
+        <v>60</v>
+      </c>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -2484,67 +2500,67 @@
       <c r="AB12" s="33"/>
       <c r="AC12" s="33"/>
       <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
+      <c r="AE12" s="33">
+        <v>20</v>
+      </c>
       <c r="AF12" s="33"/>
-      <c r="AG12" s="33">
-        <v>30</v>
-      </c>
+      <c r="AG12" s="33"/>
       <c r="AH12" s="33">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AI12" s="33">
         <v>50</v>
       </c>
       <c r="AJ12" s="35">
-        <f t="shared" si="2"/>
-        <v>140</v>
+        <f>SUM(F12:AI12)</f>
+        <v>210</v>
       </c>
       <c r="AK12" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(AJ12&gt;100,AJ12-(AJ12-100),AJ12)</f>
         <v>100</v>
       </c>
       <c r="AL12" s="35">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>IF(AJ12&gt;100,(AJ12-100)/10,0)</f>
+        <v>11</v>
       </c>
       <c r="AM12" s="35"/>
-      <c r="AN12" s="35"/>
-      <c r="AO12" s="74">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AP12" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="72">
+      <c r="AN12" s="35">
+        <v>35</v>
+      </c>
+      <c r="AO12" s="56">
+        <f>IF(AN12+AL12&gt;AQ12,AQ12,AN12+AL12)</f>
+        <v>46</v>
+      </c>
+      <c r="AP12" s="56">
+        <f>IF(AN12+AL12&gt;AQ12,AL12+AN12-AQ12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="54">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:43">
       <c r="A13" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="28"/>
+        <v>3</v>
+      </c>
+      <c r="F13" s="28">
+        <v>10</v>
+      </c>
       <c r="G13" s="28">
         <v>10</v>
       </c>
-      <c r="H13" s="28">
-        <v>10</v>
-      </c>
-      <c r="I13" s="28">
-        <v>80</v>
-      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
@@ -2568,61 +2584,69 @@
       <c r="AB13" s="33"/>
       <c r="AC13" s="33"/>
       <c r="AD13" s="33"/>
-      <c r="AE13" s="33">
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="33">
+        <v>30</v>
+      </c>
+      <c r="AH13" s="33">
         <v>20</v>
-      </c>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33">
-        <v>50</v>
       </c>
       <c r="AI13" s="33">
         <v>50</v>
       </c>
       <c r="AJ13" s="35">
-        <f t="shared" si="2"/>
-        <v>240</v>
+        <f>SUM(F13:AI13)</f>
+        <v>140</v>
       </c>
       <c r="AK13" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(AJ13&gt;100,AJ13-(AJ13-100),AJ13)</f>
         <v>100</v>
       </c>
       <c r="AL13" s="35">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f>IF(AJ13&gt;100,(AJ13-100)/10,0)</f>
+        <v>4</v>
       </c>
       <c r="AM13" s="35"/>
-      <c r="AN13" s="35"/>
-      <c r="AO13" s="74">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AP13" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="72">
+      <c r="AN13" s="35">
+        <v>50</v>
+      </c>
+      <c r="AO13" s="56">
+        <f>IF(AN13+AL13&gt;AQ13,AQ13,AN13+AL13)</f>
+        <v>54</v>
+      </c>
+      <c r="AP13" s="56">
+        <f>IF(AN13+AL13&gt;AQ13,AL13+AN13-AQ13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="54">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:43">
-      <c r="A14" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="23" t="s">
-        <v>7</v>
+      <c r="A14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="G14" s="28">
+        <v>10</v>
+      </c>
+      <c r="H14" s="28">
+        <v>10</v>
+      </c>
+      <c r="I14" s="28">
+        <v>80</v>
+      </c>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
@@ -2650,60 +2674,58 @@
         <v>20</v>
       </c>
       <c r="AF14" s="33"/>
-      <c r="AG14" s="33">
-        <v>40</v>
-      </c>
-      <c r="AH14" s="33"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="33">
+        <v>50</v>
+      </c>
       <c r="AI14" s="33">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ14" s="35">
-        <f t="shared" si="2"/>
-        <v>120</v>
+        <f>SUM(F14:AI14)</f>
+        <v>240</v>
       </c>
       <c r="AK14" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(AJ14&gt;100,AJ14-(AJ14-100),AJ14)</f>
         <v>100</v>
       </c>
       <c r="AL14" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(AJ14&gt;100,(AJ14-100)/10,0)</f>
+        <v>14</v>
+      </c>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="35">
+        <v>58</v>
+      </c>
+      <c r="AO14" s="56">
+        <f>IF(AN14+AL14&gt;AQ14,AQ14,AN14+AL14)</f>
+        <v>70</v>
+      </c>
+      <c r="AP14" s="56">
+        <f>IF(AN14+AL14&gt;AQ14,AL14+AN14-AQ14,0)</f>
         <v>2</v>
       </c>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="74">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AP14" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="72">
+      <c r="AQ14" s="54">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:43">
-      <c r="A15" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10" t="s">
-        <v>4</v>
+      <c r="A15" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="F15" s="28"/>
-      <c r="G15" s="28">
-        <v>10</v>
-      </c>
-      <c r="H15" s="28">
-        <v>10</v>
-      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
@@ -2732,36 +2754,38 @@
         <v>20</v>
       </c>
       <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33">
-        <v>10</v>
-      </c>
+      <c r="AG15" s="33">
+        <v>40</v>
+      </c>
+      <c r="AH15" s="33"/>
       <c r="AI15" s="33">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AJ15" s="35">
-        <f t="shared" si="2"/>
+        <f>SUM(F15:AI15)</f>
         <v>120</v>
       </c>
       <c r="AK15" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(AJ15&gt;100,AJ15-(AJ15-100),AJ15)</f>
         <v>100</v>
       </c>
       <c r="AL15" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(AJ15&gt;100,(AJ15-100)/10,0)</f>
         <v>2</v>
       </c>
       <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-      <c r="AO15" s="74">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AP15" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="72">
+      <c r="AN15" s="35">
+        <v>45</v>
+      </c>
+      <c r="AO15" s="56">
+        <f>IF(AN15+AL15&gt;AQ15,AQ15,AN15+AL15)</f>
+        <v>47</v>
+      </c>
+      <c r="AP15" s="56">
+        <f>IF(AN15+AL15&gt;AQ15,AL15+AN15-AQ15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="54">
         <v>70</v>
       </c>
     </row>
@@ -2822,28 +2846,30 @@
       </c>
       <c r="AI16" s="33"/>
       <c r="AJ16" s="35">
-        <f t="shared" si="2"/>
+        <f>SUM(F16:AI16)</f>
         <v>182</v>
       </c>
       <c r="AK16" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(AJ16&gt;100,AJ16-(AJ16-100),AJ16)</f>
         <v>100</v>
       </c>
       <c r="AL16" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(AJ16&gt;100,(AJ16-100)/10,0)</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="AM16" s="35"/>
-      <c r="AN16" s="35"/>
-      <c r="AO16" s="74">
-        <f t="shared" si="0"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AP16" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="72">
+      <c r="AN16" s="35">
+        <v>63</v>
+      </c>
+      <c r="AO16" s="56">
+        <f>IF(AN16+AL16&gt;AQ16,AQ16,AN16+AL16)</f>
+        <v>70</v>
+      </c>
+      <c r="AP16" s="56">
+        <f>IF(AN16+AL16&gt;AQ16,AL16+AN16-AQ16,0)</f>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="AQ16" s="54">
         <v>70</v>
       </c>
     </row>
@@ -2900,28 +2926,28 @@
       <c r="AH17" s="33"/>
       <c r="AI17" s="33"/>
       <c r="AJ17" s="35">
-        <f t="shared" si="2"/>
+        <f>SUM(F17:AI17)</f>
         <v>76</v>
       </c>
       <c r="AK17" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(AJ17&gt;100,AJ17-(AJ17-100),AJ17)</f>
         <v>76</v>
       </c>
       <c r="AL17" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(AJ17&gt;100,(AJ17-100)/10,0)</f>
         <v>0</v>
       </c>
       <c r="AM17" s="35"/>
       <c r="AN17" s="35"/>
-      <c r="AO17" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP17" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="72">
+      <c r="AO17" s="56">
+        <f>IF(AN17+AL17&gt;AQ17,AQ17,AN17+AL17)</f>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="56">
+        <f>IF(AN17+AL17&gt;AQ17,AL17+AN17-AQ17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="54">
         <v>70</v>
       </c>
     </row>
@@ -2982,28 +3008,30 @@
         <v>24</v>
       </c>
       <c r="AJ18" s="35">
-        <f t="shared" si="2"/>
+        <f>SUM(F18:AI18)</f>
         <v>120</v>
       </c>
       <c r="AK18" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(AJ18&gt;100,AJ18-(AJ18-100),AJ18)</f>
         <v>100</v>
       </c>
       <c r="AL18" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(AJ18&gt;100,(AJ18-100)/10,0)</f>
         <v>2</v>
       </c>
       <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="74">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AP18" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="72">
+      <c r="AN18" s="35">
+        <v>29</v>
+      </c>
+      <c r="AO18" s="56">
+        <f>IF(AN18+AL18&gt;AQ18,AQ18,AN18+AL18)</f>
+        <v>31</v>
+      </c>
+      <c r="AP18" s="56">
+        <f>IF(AN18+AL18&gt;AQ18,AL18+AN18-AQ18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="54">
         <v>70</v>
       </c>
     </row>
@@ -3068,28 +3096,30 @@
         <v>50</v>
       </c>
       <c r="AJ19" s="35">
-        <f t="shared" si="2"/>
+        <f>SUM(F19:AI19)</f>
         <v>260</v>
       </c>
       <c r="AK19" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(AJ19&gt;100,AJ19-(AJ19-100),AJ19)</f>
         <v>100</v>
       </c>
       <c r="AL19" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(AJ19&gt;100,(AJ19-100)/10,0)</f>
         <v>16</v>
       </c>
       <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-      <c r="AO19" s="74">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AP19" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="72">
+      <c r="AN19" s="35">
+        <v>54</v>
+      </c>
+      <c r="AO19" s="56">
+        <f>IF(AN19+AL19&gt;AQ19,AQ19,AN19+AL19)</f>
+        <v>70</v>
+      </c>
+      <c r="AP19" s="56">
+        <f>IF(AN19+AL19&gt;AQ19,AL19+AN19-AQ19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="54">
         <v>70</v>
       </c>
     </row>
@@ -3152,28 +3182,30 @@
         <v>50</v>
       </c>
       <c r="AJ20" s="35">
-        <f t="shared" si="2"/>
+        <f>SUM(F20:AI20)</f>
         <v>246</v>
       </c>
       <c r="AK20" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(AJ20&gt;100,AJ20-(AJ20-100),AJ20)</f>
         <v>100</v>
       </c>
       <c r="AL20" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(AJ20&gt;100,(AJ20-100)/10,0)</f>
         <v>14.6</v>
       </c>
       <c r="AM20" s="35"/>
-      <c r="AN20" s="35"/>
-      <c r="AO20" s="74">
-        <f t="shared" si="0"/>
-        <v>14.6</v>
-      </c>
-      <c r="AP20" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="72">
+      <c r="AN20" s="35">
+        <v>55</v>
+      </c>
+      <c r="AO20" s="56">
+        <f>IF(AN20+AL20&gt;AQ20,AQ20,AN20+AL20)</f>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AP20" s="56">
+        <f>IF(AN20+AL20&gt;AQ20,AL20+AN20-AQ20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="54">
         <v>70</v>
       </c>
     </row>
@@ -3240,24 +3272,26 @@
         <v>226</v>
       </c>
       <c r="AK21" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(AJ21&gt;100,AJ21-(AJ21-100),AJ21)</f>
         <v>100</v>
       </c>
       <c r="AL21" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(AJ21&gt;100,(AJ21-100)/10,0)</f>
         <v>12.6</v>
       </c>
       <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-      <c r="AO21" s="74">
-        <f t="shared" si="0"/>
-        <v>12.6</v>
-      </c>
-      <c r="AP21" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="72">
+      <c r="AN21" s="35">
+        <v>47</v>
+      </c>
+      <c r="AO21" s="56">
+        <f>IF(AN21+AL21&gt;AQ21,AQ21,AN21+AL21)</f>
+        <v>59.6</v>
+      </c>
+      <c r="AP21" s="56">
+        <f>IF(AN21+AL21&gt;AQ21,AL21+AN21-AQ21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="54">
         <v>70</v>
       </c>
     </row>
@@ -3320,28 +3354,30 @@
         <v>50</v>
       </c>
       <c r="AJ22" s="35">
-        <f t="shared" ref="AJ22:AJ23" si="6">SUM(F22:AI22)</f>
+        <f>SUM(F22:AI22)</f>
         <v>180</v>
       </c>
       <c r="AK22" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(AJ22&gt;100,AJ22-(AJ22-100),AJ22)</f>
         <v>100</v>
       </c>
       <c r="AL22" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(AJ22&gt;100,(AJ22-100)/10,0)</f>
         <v>8</v>
       </c>
       <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="74">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AP22" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="72">
+      <c r="AN22" s="35">
+        <v>47</v>
+      </c>
+      <c r="AO22" s="56">
+        <f>IF(AN22+AL22&gt;AQ22,AQ22,AN22+AL22)</f>
+        <v>55</v>
+      </c>
+      <c r="AP22" s="56">
+        <f>IF(AN22+AL22&gt;AQ22,AL22+AN22-AQ22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="54">
         <v>70</v>
       </c>
     </row>
@@ -3406,28 +3442,30 @@
         <v>50</v>
       </c>
       <c r="AJ23" s="35">
-        <f t="shared" si="6"/>
+        <f>SUM(F23:AI23)</f>
         <v>260</v>
       </c>
       <c r="AK23" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(AJ23&gt;100,AJ23-(AJ23-100),AJ23)</f>
         <v>100</v>
       </c>
       <c r="AL23" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(AJ23&gt;100,(AJ23-100)/10,0)</f>
         <v>16</v>
       </c>
       <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="74">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AP23" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="72">
+      <c r="AN23" s="35">
+        <v>46</v>
+      </c>
+      <c r="AO23" s="56">
+        <f>IF(AN23+AL23&gt;AQ23,AQ23,AN23+AL23)</f>
+        <v>62</v>
+      </c>
+      <c r="AP23" s="56">
+        <f>IF(AN23+AL23&gt;AQ23,AL23+AN23-AQ23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="54">
         <v>70</v>
       </c>
     </row>
@@ -3488,30 +3526,30 @@
         <v>50</v>
       </c>
       <c r="AJ24" s="35">
-        <f t="shared" ref="AJ24:AJ34" si="7">SUM(F24:AI24)</f>
+        <f>SUM(F24:AI24)</f>
         <v>226</v>
       </c>
       <c r="AK24" s="35">
-        <f t="shared" ref="AK24:AK34" si="8">IF(AJ24&gt;100,AJ24-(AJ24-100),AJ24)</f>
+        <f>IF(AJ24&gt;100,AJ24-(AJ24-100),AJ24)</f>
         <v>100</v>
       </c>
       <c r="AL24" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(AJ24&gt;100,(AJ24-100)/10,0)</f>
         <v>12.6</v>
       </c>
       <c r="AM24" s="35"/>
       <c r="AN24" s="35">
         <v>50</v>
       </c>
-      <c r="AO24" s="74">
-        <f t="shared" si="0"/>
+      <c r="AO24" s="56">
+        <f>IF(AN24+AL24&gt;AQ24,AQ24,AN24+AL24)</f>
         <v>62.6</v>
       </c>
-      <c r="AP24" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="72">
+      <c r="AP24" s="56">
+        <f>IF(AN24+AL24&gt;AQ24,AL24+AN24-AQ24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="54">
         <v>70</v>
       </c>
     </row>
@@ -3572,28 +3610,30 @@
         <v>50</v>
       </c>
       <c r="AJ25" s="35">
-        <f t="shared" si="7"/>
+        <f>SUM(F25:AI25)</f>
         <v>202</v>
       </c>
       <c r="AK25" s="35">
-        <f t="shared" si="8"/>
+        <f>IF(AJ25&gt;100,AJ25-(AJ25-100),AJ25)</f>
         <v>100</v>
       </c>
       <c r="AL25" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(AJ25&gt;100,(AJ25-100)/10,0)</f>
         <v>10.199999999999999</v>
       </c>
       <c r="AM25" s="35"/>
-      <c r="AN25" s="35"/>
-      <c r="AO25" s="74">
-        <f t="shared" si="0"/>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AP25" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="72">
+      <c r="AN25" s="35">
+        <v>34</v>
+      </c>
+      <c r="AO25" s="56">
+        <f>IF(AN25+AL25&gt;AQ25,AQ25,AN25+AL25)</f>
+        <v>44.2</v>
+      </c>
+      <c r="AP25" s="56">
+        <f>IF(AN25+AL25&gt;AQ25,AL25+AN25-AQ25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="54">
         <v>70</v>
       </c>
     </row>
@@ -3654,28 +3694,30 @@
         <v>30</v>
       </c>
       <c r="AJ26" s="35">
-        <f t="shared" si="7"/>
+        <f>SUM(F26:AI26)</f>
         <v>180</v>
       </c>
       <c r="AK26" s="35">
-        <f t="shared" si="8"/>
+        <f>IF(AJ26&gt;100,AJ26-(AJ26-100),AJ26)</f>
         <v>100</v>
       </c>
       <c r="AL26" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(AJ26&gt;100,(AJ26-100)/10,0)</f>
         <v>8</v>
       </c>
       <c r="AM26" s="35"/>
-      <c r="AN26" s="35"/>
-      <c r="AO26" s="74">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AP26" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="72">
+      <c r="AN26" s="35">
+        <v>57</v>
+      </c>
+      <c r="AO26" s="56">
+        <f>IF(AN26+AL26&gt;AQ26,AQ26,AN26+AL26)</f>
+        <v>65</v>
+      </c>
+      <c r="AP26" s="56">
+        <f>IF(AN26+AL26&gt;AQ26,AL26+AN26-AQ26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="54">
         <v>70</v>
       </c>
     </row>
@@ -3716,28 +3758,28 @@
       <c r="AH27" s="33"/>
       <c r="AI27" s="33"/>
       <c r="AJ27" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AJ24:AJ34" si="0">SUM(F27:AI27)</f>
         <v>0</v>
       </c>
       <c r="AK27" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AK24:AK34" si="1">IF(AJ27&gt;100,AJ27-(AJ27-100),AJ27)</f>
         <v>0</v>
       </c>
       <c r="AL27" s="35">
-        <f t="shared" ref="AL27:AL34" si="9">IF(AK27&gt;100,AK27-100,0)</f>
+        <f t="shared" ref="AL27:AL34" si="2">IF(AK27&gt;100,AK27-100,0)</f>
         <v>0</v>
       </c>
       <c r="AM27" s="35"/>
       <c r="AN27" s="35"/>
-      <c r="AO27" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP27" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="72">
+      <c r="AO27" s="56">
+        <f t="shared" ref="AO3:AO46" si="3">IF(AN27+AL27&gt;AQ27,AQ27,AN27+AL27)</f>
+        <v>0</v>
+      </c>
+      <c r="AP27" s="56">
+        <f t="shared" ref="AP10:AP46" si="4">IF(AN27+AL27&gt;AQ27,AL27+AN27-AQ27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="54">
         <v>70</v>
       </c>
     </row>
@@ -3778,28 +3820,28 @@
       <c r="AH28" s="33"/>
       <c r="AI28" s="33"/>
       <c r="AJ28" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK28" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL28" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM28" s="35"/>
       <c r="AN28" s="35"/>
-      <c r="AO28" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP28" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="72">
+      <c r="AO28" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP28" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="54">
         <v>70</v>
       </c>
     </row>
@@ -3840,28 +3882,28 @@
       <c r="AH29" s="33"/>
       <c r="AI29" s="33"/>
       <c r="AJ29" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK29" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL29" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM29" s="35"/>
       <c r="AN29" s="35"/>
-      <c r="AO29" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP29" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="72">
+      <c r="AO29" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP29" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="54">
         <v>70</v>
       </c>
     </row>
@@ -3902,28 +3944,28 @@
       <c r="AH30" s="33"/>
       <c r="AI30" s="33"/>
       <c r="AJ30" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK30" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL30" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM30" s="35"/>
       <c r="AN30" s="35"/>
-      <c r="AO30" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP30" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="72">
+      <c r="AO30" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP30" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="54">
         <v>70</v>
       </c>
     </row>
@@ -3964,28 +4006,28 @@
       <c r="AH31" s="33"/>
       <c r="AI31" s="33"/>
       <c r="AJ31" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK31" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL31" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM31" s="35"/>
       <c r="AN31" s="35"/>
-      <c r="AO31" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP31" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="72">
+      <c r="AO31" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP31" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="54">
         <v>70</v>
       </c>
     </row>
@@ -4026,28 +4068,28 @@
       <c r="AH32" s="33"/>
       <c r="AI32" s="33"/>
       <c r="AJ32" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK32" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL32" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM32" s="35"/>
       <c r="AN32" s="35"/>
-      <c r="AO32" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP32" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="72">
+      <c r="AO32" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP32" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="54">
         <v>70</v>
       </c>
     </row>
@@ -4088,28 +4130,28 @@
       <c r="AH33" s="33"/>
       <c r="AI33" s="33"/>
       <c r="AJ33" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK33" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL33" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM33" s="35"/>
       <c r="AN33" s="35"/>
-      <c r="AO33" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP33" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="72">
+      <c r="AO33" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP33" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="54">
         <v>70</v>
       </c>
     </row>
@@ -4150,28 +4192,28 @@
       <c r="AH34" s="33"/>
       <c r="AI34" s="33"/>
       <c r="AJ34" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK34" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL34" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM34" s="35"/>
       <c r="AN34" s="35"/>
-      <c r="AO34" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP34" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ34" s="72">
+      <c r="AO34" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP34" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="54">
         <v>70</v>
       </c>
     </row>
@@ -4212,28 +4254,28 @@
       <c r="AH35" s="33"/>
       <c r="AI35" s="33"/>
       <c r="AJ35" s="35">
-        <f t="shared" ref="AJ35:AJ61" si="10">SUM(F35:AI35)</f>
+        <f t="shared" ref="AJ35:AJ61" si="5">SUM(F35:AI35)</f>
         <v>0</v>
       </c>
       <c r="AK35" s="35">
-        <f t="shared" ref="AK35:AK61" si="11">IF(AJ35&gt;100,AJ35-(AJ35-100),AJ35)</f>
+        <f t="shared" ref="AK35:AK61" si="6">IF(AJ35&gt;100,AJ35-(AJ35-100),AJ35)</f>
         <v>0</v>
       </c>
       <c r="AL35" s="35">
-        <f t="shared" ref="AL35:AL61" si="12">IF(AK35&gt;100,AK35-100,0)</f>
+        <f t="shared" ref="AL35:AL61" si="7">IF(AK35&gt;100,AK35-100,0)</f>
         <v>0</v>
       </c>
       <c r="AM35" s="35"/>
       <c r="AN35" s="35"/>
-      <c r="AO35" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP35" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="72">
+      <c r="AO35" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP35" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="54">
         <v>70</v>
       </c>
     </row>
@@ -4274,28 +4316,28 @@
       <c r="AH36" s="33"/>
       <c r="AI36" s="33"/>
       <c r="AJ36" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK36" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL36" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM36" s="35"/>
       <c r="AN36" s="35"/>
-      <c r="AO36" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP36" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="72">
+      <c r="AO36" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP36" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="54">
         <v>70</v>
       </c>
     </row>
@@ -4336,28 +4378,28 @@
       <c r="AH37" s="33"/>
       <c r="AI37" s="33"/>
       <c r="AJ37" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK37" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL37" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM37" s="35"/>
       <c r="AN37" s="35"/>
-      <c r="AO37" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP37" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ37" s="72">
+      <c r="AO37" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP37" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="54">
         <v>70</v>
       </c>
     </row>
@@ -4398,28 +4440,28 @@
       <c r="AH38" s="33"/>
       <c r="AI38" s="33"/>
       <c r="AJ38" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK38" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL38" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM38" s="35"/>
       <c r="AN38" s="35"/>
-      <c r="AO38" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP38" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="72">
+      <c r="AO38" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP38" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="54">
         <v>70</v>
       </c>
     </row>
@@ -4460,28 +4502,28 @@
       <c r="AH39" s="33"/>
       <c r="AI39" s="33"/>
       <c r="AJ39" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK39" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL39" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM39" s="35"/>
       <c r="AN39" s="35"/>
-      <c r="AO39" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP39" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="72">
+      <c r="AO39" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP39" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="54">
         <v>70</v>
       </c>
     </row>
@@ -4522,28 +4564,28 @@
       <c r="AH40" s="33"/>
       <c r="AI40" s="33"/>
       <c r="AJ40" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK40" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL40" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM40" s="35"/>
       <c r="AN40" s="35"/>
-      <c r="AO40" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP40" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="72">
+      <c r="AO40" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP40" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="54">
         <v>70</v>
       </c>
     </row>
@@ -4584,28 +4626,28 @@
       <c r="AH41" s="33"/>
       <c r="AI41" s="33"/>
       <c r="AJ41" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK41" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL41" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM41" s="35"/>
       <c r="AN41" s="35"/>
-      <c r="AO41" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP41" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="72">
+      <c r="AO41" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP41" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="54">
         <v>70</v>
       </c>
     </row>
@@ -4646,28 +4688,28 @@
       <c r="AH42" s="33"/>
       <c r="AI42" s="33"/>
       <c r="AJ42" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK42" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL42" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM42" s="35"/>
       <c r="AN42" s="35"/>
-      <c r="AO42" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP42" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ42" s="72">
+      <c r="AO42" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP42" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="54">
         <v>70</v>
       </c>
     </row>
@@ -4708,28 +4750,28 @@
       <c r="AH43" s="33"/>
       <c r="AI43" s="33"/>
       <c r="AJ43" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK43" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL43" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM43" s="35"/>
       <c r="AN43" s="35"/>
-      <c r="AO43" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP43" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ43" s="72">
+      <c r="AO43" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP43" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="54">
         <v>70</v>
       </c>
     </row>
@@ -4770,28 +4812,28 @@
       <c r="AH44" s="33"/>
       <c r="AI44" s="33"/>
       <c r="AJ44" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK44" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL44" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM44" s="35"/>
       <c r="AN44" s="35"/>
-      <c r="AO44" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP44" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ44" s="72">
+      <c r="AO44" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP44" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="54">
         <v>70</v>
       </c>
     </row>
@@ -4832,28 +4874,28 @@
       <c r="AH45" s="33"/>
       <c r="AI45" s="33"/>
       <c r="AJ45" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK45" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL45" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM45" s="35"/>
       <c r="AN45" s="35"/>
-      <c r="AO45" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP45" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ45" s="72">
+      <c r="AO45" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP45" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="54">
         <v>70</v>
       </c>
     </row>
@@ -4894,28 +4936,28 @@
       <c r="AH46" s="33"/>
       <c r="AI46" s="33"/>
       <c r="AJ46" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK46" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL46" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM46" s="35"/>
       <c r="AN46" s="35"/>
-      <c r="AO46" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP46" s="74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ46" s="72">
+      <c r="AO46" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP46" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="54">
         <v>70</v>
       </c>
     </row>
@@ -4956,20 +4998,20 @@
       <c r="AH47" s="33"/>
       <c r="AI47" s="33"/>
       <c r="AJ47" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK47" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL47" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM47" s="35"/>
       <c r="AN47" s="35"/>
-      <c r="AQ47" s="72">
+      <c r="AQ47" s="54">
         <v>70</v>
       </c>
     </row>
@@ -5010,20 +5052,20 @@
       <c r="AH48" s="33"/>
       <c r="AI48" s="33"/>
       <c r="AJ48" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK48" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL48" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM48" s="35"/>
       <c r="AN48" s="35"/>
-      <c r="AQ48" s="72">
+      <c r="AQ48" s="54">
         <v>70</v>
       </c>
     </row>
@@ -5064,20 +5106,20 @@
       <c r="AH49" s="33"/>
       <c r="AI49" s="33"/>
       <c r="AJ49" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK49" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL49" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM49" s="35"/>
       <c r="AN49" s="35"/>
-      <c r="AQ49" s="72">
+      <c r="AQ49" s="54">
         <v>70</v>
       </c>
     </row>
@@ -5118,20 +5160,20 @@
       <c r="AH50" s="33"/>
       <c r="AI50" s="33"/>
       <c r="AJ50" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK50" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL50" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM50" s="35"/>
       <c r="AN50" s="35"/>
-      <c r="AQ50" s="72">
+      <c r="AQ50" s="54">
         <v>70</v>
       </c>
     </row>
@@ -5172,20 +5214,20 @@
       <c r="AH51" s="33"/>
       <c r="AI51" s="33"/>
       <c r="AJ51" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK51" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL51" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM51" s="35"/>
       <c r="AN51" s="35"/>
-      <c r="AQ51" s="72">
+      <c r="AQ51" s="54">
         <v>70</v>
       </c>
     </row>
@@ -5226,20 +5268,20 @@
       <c r="AH52" s="33"/>
       <c r="AI52" s="33"/>
       <c r="AJ52" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK52" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL52" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM52" s="35"/>
       <c r="AN52" s="35"/>
-      <c r="AQ52" s="72">
+      <c r="AQ52" s="54">
         <v>70</v>
       </c>
     </row>
@@ -5280,20 +5322,20 @@
       <c r="AH53" s="33"/>
       <c r="AI53" s="33"/>
       <c r="AJ53" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK53" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL53" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM53" s="35"/>
       <c r="AN53" s="35"/>
-      <c r="AQ53" s="72">
+      <c r="AQ53" s="54">
         <v>70</v>
       </c>
     </row>
@@ -5334,20 +5376,20 @@
       <c r="AH54" s="33"/>
       <c r="AI54" s="33"/>
       <c r="AJ54" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK54" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL54" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM54" s="35"/>
       <c r="AN54" s="35"/>
-      <c r="AQ54" s="72">
+      <c r="AQ54" s="54">
         <v>70</v>
       </c>
     </row>
@@ -5388,20 +5430,20 @@
       <c r="AH55" s="33"/>
       <c r="AI55" s="33"/>
       <c r="AJ55" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK55" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL55" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM55" s="35"/>
       <c r="AN55" s="35"/>
-      <c r="AQ55" s="72">
+      <c r="AQ55" s="54">
         <v>70</v>
       </c>
     </row>
@@ -5442,20 +5484,20 @@
       <c r="AH56" s="33"/>
       <c r="AI56" s="33"/>
       <c r="AJ56" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK56" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL56" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM56" s="35"/>
       <c r="AN56" s="35"/>
-      <c r="AQ56" s="72">
+      <c r="AQ56" s="54">
         <v>70</v>
       </c>
     </row>
@@ -5496,20 +5538,20 @@
       <c r="AH57" s="33"/>
       <c r="AI57" s="33"/>
       <c r="AJ57" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK57" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL57" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM57" s="35"/>
       <c r="AN57" s="35"/>
-      <c r="AQ57" s="72">
+      <c r="AQ57" s="54">
         <v>70</v>
       </c>
     </row>
@@ -5550,15 +5592,15 @@
       <c r="AH58" s="33"/>
       <c r="AI58" s="33"/>
       <c r="AJ58" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK58" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL58" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM58" s="35"/>
@@ -5601,15 +5643,15 @@
       <c r="AH59" s="33"/>
       <c r="AI59" s="33"/>
       <c r="AJ59" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK59" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL59" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM59" s="35"/>
@@ -5652,15 +5694,15 @@
       <c r="AH60" s="33"/>
       <c r="AI60" s="33"/>
       <c r="AJ60" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK60" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL60" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM60" s="35"/>
@@ -5703,22 +5745,22 @@
       <c r="AH61" s="33"/>
       <c r="AI61" s="33"/>
       <c r="AJ61" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK61" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL61" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM61" s="35"/>
       <c r="AN61" s="35"/>
     </row>
   </sheetData>
-  <sortState ref="A3:G26">
+  <sortState ref="A3:AQ26">
     <sortCondition ref="B3:B26"/>
   </sortState>
   <mergeCells count="5">
@@ -5783,58 +5825,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="68" t="s">
+      <c r="J1" s="69"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="69" t="s">
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="70" t="s">
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
       <c r="V1" s="47"/>
       <c r="W1" s="47"/>
       <c r="X1" s="47"/>
       <c r="Y1" s="47"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
     </row>
     <row r="2" spans="1:40" ht="15">
       <c r="A2" s="13" t="s">
